--- a/1C/MATEMATICA/Bases/Bases mayores a 10.xlsx
+++ b/1C/MATEMATICA/Bases/Bases mayores a 10.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16730" windowHeight="8588" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16730" windowHeight="8588" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>1) (AACB) en base 13 a decimal</t>
   </si>
@@ -180,10 +180,28 @@
     <t>101111101000101</t>
   </si>
   <si>
-    <t xml:space="preserve">No se puede resolver, porque el máximo número permitido es base -1. En esta caso el </t>
-  </si>
-  <si>
-    <t>valor máximo permitido es el 15  y la letra G se corresponde con el 16.</t>
+    <t>G</t>
+  </si>
+  <si>
+    <t>18^0*(7)</t>
+  </si>
+  <si>
+    <t>18^2*(4)</t>
+  </si>
+  <si>
+    <t>18^3*(16)</t>
+  </si>
+  <si>
+    <t>G4F7</t>
+  </si>
+  <si>
+    <t>18^1*(15)</t>
+  </si>
+  <si>
+    <t>10111001010100101</t>
+  </si>
+  <si>
+    <t>Base 18</t>
   </si>
 </sst>
 </file>
@@ -317,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -352,6 +370,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,150 +820,150 @@
       </c>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33" t="s">
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C5" s="33">
+      <c r="C5" s="35">
         <v>3</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35">
         <v>2</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33">
-        <v>1</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35">
         <v>0</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33" t="s">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C7" s="33">
+      <c r="C7" s="35">
         <f>13^3*(10)</f>
         <v>21970</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35">
         <f>13^2*(10)</f>
         <v>1690</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35">
         <f>13^1*(12)</f>
         <v>156</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35">
         <f>13^0*(11)</f>
         <v>11</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="29">
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="31">
         <f>L7+I7+F7+C7</f>
         <v>23827</v>
       </c>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30" t="s">
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
+      <c r="A11" s="33">
         <v>23827</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1104,156 +1128,156 @@
       <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:29" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35">
         <v>4</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="33">
+      <c r="C6" s="35">
         <v>3</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35">
         <v>2</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33">
-        <v>1</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35">
         <v>0</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <f>16^3*(11)</f>
         <v>45056</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <f>16^2*(15)</f>
         <v>3840</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35">
         <f>16^1*(4)</f>
         <v>64</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <f>16^0*(12)</f>
         <v>12</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="29">
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="31">
         <f>L8+I8+F8+C8</f>
         <v>48972</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30" t="s">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
         <f>O8</f>
         <v>48972</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1397,150 +1421,150 @@
       <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:29" s="19" customFormat="1" ht="23.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C5" s="33">
+      <c r="C5" s="35">
         <v>9</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35">
         <v>8</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33" t="s">
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C6" s="33">
+      <c r="C6" s="35">
         <v>3</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35">
         <v>2</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33">
-        <v>1</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33">
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35">
         <v>0</v>
       </c>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33" t="s">
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <f>14^3*(9)</f>
         <v>24696</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <f>14^2*(13)</f>
         <v>2548</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35">
         <f>14^1*(8)</f>
         <v>112</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35">
         <f>14^0*(12)</f>
         <v>12</v>
       </c>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="29">
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="31">
         <f>L8+I8+F8+C8</f>
         <v>27368</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30" t="s">
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
         <f>O8</f>
         <v>27368</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1707,20 +1731,20 @@
       <c r="AC2" s="9"/>
     </row>
     <row r="3" spans="1:29" ht="30.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="5" spans="1:29" s="21" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
@@ -1878,342 +1902,342 @@
       <c r="AC2" s="9"/>
     </row>
     <row r="3" spans="1:30" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C6" s="33">
+      <c r="C6" s="35">
         <v>2</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33">
-        <v>1</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35">
         <v>0</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C8" s="33">
+      <c r="C8" s="35">
         <f>16^2*(15)</f>
         <v>3840</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35">
         <f>16^1*(15)</f>
         <v>240</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35">
         <f>16^0*(15)</f>
         <v>15</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="29">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="31">
         <f>C8+F8+I8</f>
         <v>4095</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30" t="s">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="33">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="35">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33">
+      <c r="D10" s="35"/>
+      <c r="E10" s="35">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33">
+      <c r="J10" s="35"/>
+      <c r="K10" s="35">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33">
+      <c r="L10" s="35"/>
+      <c r="M10" s="35">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33">
+      <c r="N10" s="35"/>
+      <c r="O10" s="35">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33">
+      <c r="R10" s="35"/>
+      <c r="S10" s="35">
         <f>2^4</f>
         <v>16</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33">
+      <c r="T10" s="35"/>
+      <c r="U10" s="35">
         <f>2^3</f>
         <v>8</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33">
+      <c r="V10" s="35"/>
+      <c r="W10" s="35">
         <f>2^2</f>
         <v>4</v>
       </c>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33">
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35">
         <f>2^1</f>
         <v>2</v>
       </c>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33">
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35">
         <f>2^0</f>
         <v>1</v>
       </c>
-      <c r="AB10" s="33"/>
+      <c r="AB10" s="35"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="33">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="35">
         <v>0</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33">
-        <v>1</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33">
-        <v>1</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33">
-        <v>1</v>
-      </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
-        <v>1</v>
-      </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33">
-        <v>1</v>
-      </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33">
-        <v>1</v>
-      </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33">
-        <v>1</v>
-      </c>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="33"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35">
+        <v>1</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35">
+        <v>1</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35">
+        <v>1</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35">
+        <v>1</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35">
+        <v>1</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35">
+        <v>1</v>
+      </c>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38">
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40">
         <f>L8-E10</f>
         <v>2047</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38">
+      <c r="F12" s="40"/>
+      <c r="G12" s="40">
         <f>E12-G10</f>
         <v>1023</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38">
+      <c r="H12" s="40"/>
+      <c r="I12" s="40">
         <f>G12-I10</f>
         <v>511</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38">
+      <c r="J12" s="40"/>
+      <c r="K12" s="40">
         <f>I12-K10</f>
         <v>255</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38">
+      <c r="L12" s="40"/>
+      <c r="M12" s="40">
         <f>K12-M10</f>
         <v>127</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38">
+      <c r="N12" s="40"/>
+      <c r="O12" s="40">
         <f>M12-O10</f>
         <v>63</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38">
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40">
         <f>O12-Q10</f>
         <v>31</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38">
+      <c r="R12" s="40"/>
+      <c r="S12" s="40">
         <f>Q12-S10</f>
         <v>15</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38">
+      <c r="T12" s="40"/>
+      <c r="U12" s="40">
         <f>S12-U10</f>
         <v>7</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38">
+      <c r="V12" s="40"/>
+      <c r="W12" s="40">
         <f>U12-W10</f>
         <v>3</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38">
+      <c r="X12" s="40"/>
+      <c r="Y12" s="40">
         <f>W12-Y10</f>
         <v>1</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="38">
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="40">
         <v>0</v>
       </c>
-      <c r="AB12" s="38"/>
+      <c r="AB12" s="40"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="A15" s="34">
         <f>L8</f>
         <v>4095</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -2235,20 +2259,30 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="O8:T8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="AA10:AB10"/>
     <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="U10:V10"/>
     <mergeCell ref="S10:T10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G10:H10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="Y11:Z11"/>
@@ -2260,16 +2294,6 @@
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="U12:V12"/>
@@ -2292,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AG10" sqref="C10:AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -2439,209 +2463,209 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:35" s="40" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B5" s="33">
+      <c r="B5" s="35">
         <v>8</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35">
         <v>8</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="33">
+      <c r="B6" s="35">
         <v>4</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33">
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35">
         <v>3</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35">
         <v>2</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33">
-        <v>1</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35">
         <v>0</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="B8" s="35">
         <f>13^4*(8)</f>
         <v>228488</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33">
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35">
         <f>13^3*(10)</f>
         <v>21970</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35">
         <f>13^2*(11)</f>
         <v>1859</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <f>13^1*(12)</f>
         <v>156</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35">
         <f>13^0*(8)</f>
         <v>8</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="29">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="31">
         <f>N8+K8+H8+E8+B8</f>
         <v>252481</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30" t="s">
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
     </row>
     <row r="10" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="43">
         <f>2^18</f>
         <v>262144</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43">
         <f>2^17</f>
         <v>131072</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
         <f>2^16</f>
         <v>65536</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43">
         <f>2^15</f>
         <v>32768</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43">
         <f>2^14</f>
         <v>16384</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43">
         <f>2^13</f>
         <v>8192</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41">
+      <c r="L10" s="43"/>
+      <c r="M10" s="43">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
+      <c r="R10" s="43"/>
+      <c r="S10" s="43">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41">
+      <c r="T10" s="43"/>
+      <c r="U10" s="43">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41">
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41">
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="AB10" s="41"/>
+      <c r="AB10" s="43"/>
       <c r="AC10" s="28">
         <f>2^4</f>
         <v>16</v>
@@ -2666,62 +2690,62 @@
       <c r="AI10" s="24"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="35">
         <v>0</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33">
-        <v>1</v>
-      </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35">
+        <v>1</v>
+      </c>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35">
         <v>0</v>
       </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33">
-        <v>1</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33">
-        <v>1</v>
-      </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
+      <c r="L11" s="35"/>
+      <c r="M11" s="35">
+        <v>1</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35">
+        <v>1</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35">
         <v>0</v>
       </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33">
-        <v>1</v>
-      </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33">
+      <c r="R11" s="35"/>
+      <c r="S11" s="35">
+        <v>1</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35">
         <v>0</v>
       </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33">
+      <c r="V11" s="35"/>
+      <c r="W11" s="35">
         <v>0</v>
       </c>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33">
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35">
         <v>0</v>
       </c>
-      <c r="AB11" s="33"/>
+      <c r="AB11" s="35"/>
       <c r="AC11" s="3">
         <v>0</v>
       </c>
@@ -2741,68 +2765,68 @@
       <c r="AI11" s="4"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12" s="46">
         <f>Q8-C10</f>
         <v>121409</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="42">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44">
         <f>A12-E10</f>
         <v>55873</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="42">
+      <c r="F12" s="40"/>
+      <c r="G12" s="44">
         <f>E12-G10</f>
         <v>23105</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="42">
+      <c r="H12" s="40"/>
+      <c r="I12" s="44">
         <f>G12-I10</f>
         <v>6721</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="42">
+      <c r="J12" s="40"/>
+      <c r="K12" s="44">
         <v>6721</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="42">
+      <c r="L12" s="40"/>
+      <c r="M12" s="44">
         <f>K12-M10</f>
         <v>2625</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="42">
+      <c r="N12" s="40"/>
+      <c r="O12" s="44">
         <f>M12-O10</f>
         <v>577</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="42">
+      <c r="P12" s="40"/>
+      <c r="Q12" s="44">
         <v>577</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="42">
+      <c r="R12" s="40"/>
+      <c r="S12" s="44">
         <f>Q12-S10</f>
         <v>65</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="42">
+      <c r="T12" s="40"/>
+      <c r="U12" s="44">
         <v>65</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="42">
+      <c r="V12" s="40"/>
+      <c r="W12" s="44">
         <v>65</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="42">
+      <c r="X12" s="40"/>
+      <c r="Y12" s="44">
         <f>W12-Y10</f>
         <v>1</v>
       </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="42">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="38"/>
+      <c r="Z12" s="40"/>
+      <c r="AA12" s="44">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="40"/>
       <c r="AC12" s="26">
         <v>1</v>
       </c>
@@ -2820,47 +2844,47 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="32">
+      <c r="A15" s="34">
         <f>Q8</f>
         <v>252481</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="31" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="31" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:1" ht="19.649999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="27"/>
@@ -2951,7 +2975,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+      <selection activeCell="A4" sqref="A4:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -3096,200 +3120,200 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:31" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:31" ht="43.85" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="33">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="35">
         <v>5</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33">
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35">
         <v>4</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33">
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35">
         <v>5</v>
       </c>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="33">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="35">
         <v>3</v>
       </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35">
         <v>2</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33">
-        <v>1</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33">
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35">
         <v>0</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="33" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="33">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="35">
         <f>16^3*(5)</f>
         <v>20480</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35">
         <f>16^2*(15)</f>
         <v>3840</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33">
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35">
         <f>16^1*(4)</f>
         <v>64</v>
       </c>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35">
         <f>16^0*(5)</f>
         <v>5</v>
       </c>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="29">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="31">
         <f>N8+K8+H8+E8</f>
         <v>24389</v>
       </c>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30" t="s">
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
     </row>
     <row r="10" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="41">
+      <c r="C10" s="43">
         <f>2^15</f>
         <v>32768</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43">
         <f>2^14</f>
         <v>16384</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43">
         <f>2^13</f>
         <v>8192</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41">
+      <c r="H10" s="43"/>
+      <c r="I10" s="43">
         <f>2^12</f>
         <v>4096</v>
       </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41">
+      <c r="J10" s="43"/>
+      <c r="K10" s="43">
         <f>2^11</f>
         <v>2048</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41">
+      <c r="L10" s="43"/>
+      <c r="M10" s="43">
         <f>2^10</f>
         <v>1024</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43">
         <f>2^9</f>
         <v>512</v>
       </c>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41">
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43">
         <f>2^8</f>
         <v>256</v>
       </c>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41">
+      <c r="R10" s="43"/>
+      <c r="S10" s="43">
         <f>2^7</f>
         <v>128</v>
       </c>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41">
+      <c r="T10" s="43"/>
+      <c r="U10" s="43">
         <f>2^6</f>
         <v>64</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41">
+      <c r="V10" s="43"/>
+      <c r="W10" s="43">
         <f>2^5</f>
         <v>32</v>
       </c>
-      <c r="X10" s="41"/>
+      <c r="X10" s="43"/>
       <c r="Y10" s="28">
         <f>2^4</f>
         <v>16</v>
@@ -3314,50 +3338,50 @@
       <c r="AE10" s="24"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C11" s="33">
+      <c r="C11" s="35">
         <v>0</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33">
-        <v>1</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35">
         <v>0</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33">
-        <v>1</v>
-      </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33">
-        <v>1</v>
-      </c>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33">
-        <v>1</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33">
-        <v>1</v>
-      </c>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
-        <v>1</v>
-      </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33">
+      <c r="H11" s="35"/>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35">
+        <v>1</v>
+      </c>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35">
+        <v>1</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35">
+        <v>1</v>
+      </c>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35">
         <v>0</v>
       </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33">
-        <v>1</v>
-      </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33">
+      <c r="T11" s="35"/>
+      <c r="U11" s="35">
+        <v>1</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35">
         <v>0</v>
       </c>
-      <c r="X11" s="33"/>
+      <c r="X11" s="35"/>
       <c r="Y11" s="3">
         <v>0</v>
       </c>
@@ -3377,55 +3401,55 @@
       <c r="AE11" s="4"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="C12" s="42"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="42">
+      <c r="C12" s="44"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="44">
         <f>Q8-E10</f>
         <v>8005</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="42">
+      <c r="F12" s="40"/>
+      <c r="G12" s="44">
         <v>8005</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="42">
+      <c r="H12" s="40"/>
+      <c r="I12" s="44">
         <f>G12-I10</f>
         <v>3909</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="42">
+      <c r="J12" s="40"/>
+      <c r="K12" s="44">
         <f>I12-K10</f>
         <v>1861</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="42">
+      <c r="L12" s="40"/>
+      <c r="M12" s="44">
         <f>K12-M10</f>
         <v>837</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="42">
+      <c r="N12" s="40"/>
+      <c r="O12" s="44">
         <f>M12-O10</f>
         <v>325</v>
       </c>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="42">
+      <c r="P12" s="40"/>
+      <c r="Q12" s="44">
         <f>O12-Q10</f>
         <v>69</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="42">
+      <c r="R12" s="40"/>
+      <c r="S12" s="44">
         <v>69</v>
       </c>
-      <c r="T12" s="38"/>
-      <c r="U12" s="42">
+      <c r="T12" s="40"/>
+      <c r="U12" s="44">
         <f>S12-U10</f>
         <v>5</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="42">
+      <c r="V12" s="40"/>
+      <c r="W12" s="44">
         <v>5</v>
       </c>
-      <c r="X12" s="38"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="26">
         <v>5</v>
       </c>
@@ -3444,47 +3468,47 @@
       </c>
     </row>
     <row r="14" spans="1:31" ht="18.350000000000001" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="31" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
     </row>
     <row r="15" spans="1:31" ht="18.350000000000001" x14ac:dyDescent="0.35">
-      <c r="A15" s="46">
+      <c r="A15" s="48">
         <f>Q8</f>
         <v>24389</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="31" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:31" ht="18.350000000000001" x14ac:dyDescent="0.35">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="31" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -3502,6 +3526,8 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K6:M6"/>
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="I12:J12"/>
@@ -3526,17 +3552,16 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:Y8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
@@ -3544,12 +3569,11 @@
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3558,19 +3582,30 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="86.5546875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.21875" customWidth="1"/>
-    <col min="2" max="29" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="5" width="4.33203125" customWidth="1"/>
+    <col min="6" max="7" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.109375" customWidth="1"/>
+    <col min="9" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="29" width="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" customWidth="1"/>
+    <col min="31" max="31" width="3" customWidth="1"/>
+    <col min="32" max="32" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>10</v>
       </c>
@@ -3586,10 +3621,10 @@
       <c r="E1" s="7">
         <v>14</v>
       </c>
-      <c r="F1" s="17">
+      <c r="F1" s="5">
         <v>15</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>16</v>
       </c>
       <c r="H1" s="7">
@@ -3659,7 +3694,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22"/>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -3690,36 +3725,481 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" s="8" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:31" s="8" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-    </row>
-    <row r="5" spans="1:29" s="21" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="35" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" s="21" customFormat="1" ht="18.350000000000001" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35">
+        <v>4</v>
+      </c>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35">
+        <v>7</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="35">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35">
+        <v>2</v>
+      </c>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35">
+        <v>1</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35">
+        <v>0</v>
+      </c>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35" t="s">
         <v>50</v>
       </c>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="35">
+        <f>18^3*(16)</f>
+        <v>93312</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35">
+        <f>18^2*(4)</f>
+        <v>1296</v>
+      </c>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35">
+        <f>18^1*(15)</f>
+        <v>270</v>
+      </c>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
+        <f>18^0*(7)</f>
+        <v>7</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="31">
+        <f>E9+H9+K9+N9</f>
+        <v>94885</v>
+      </c>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+    </row>
+    <row r="11" spans="1:31" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="43">
+        <f>2^16</f>
+        <v>65536</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43">
+        <f>2^15</f>
+        <v>32768</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43">
+        <f>2^14</f>
+        <v>16384</v>
+      </c>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43">
+        <f>2^13</f>
+        <v>8192</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43">
+        <f>2^12</f>
+        <v>4096</v>
+      </c>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43">
+        <f>2^11</f>
+        <v>2048</v>
+      </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43">
+        <f>2^10</f>
+        <v>1024</v>
+      </c>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43">
+        <f>2^9</f>
+        <v>512</v>
+      </c>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43">
+        <f>2^8</f>
+        <v>256</v>
+      </c>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43">
+        <f>2^7</f>
+        <v>128</v>
+      </c>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43">
+        <f>2^6</f>
+        <v>64</v>
+      </c>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43">
+        <f>2^5</f>
+        <v>32</v>
+      </c>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43">
+        <f>2^4</f>
+        <v>16</v>
+      </c>
+      <c r="AA11" s="43">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+      <c r="AB11" s="30">
+        <v>8</v>
+      </c>
+      <c r="AC11" s="30">
+        <f>2^2</f>
+        <v>4</v>
+      </c>
+      <c r="AD11" s="30">
+        <f>2^1</f>
+        <v>2</v>
+      </c>
+      <c r="AE11" s="30">
+        <f>2^0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B12" s="35">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35">
+        <v>0</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35">
+        <v>1</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35">
+        <v>1</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35">
+        <v>0</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35">
+        <v>0</v>
+      </c>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35">
+        <v>0</v>
+      </c>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35">
+        <v>1</v>
+      </c>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35">
+        <v>0</v>
+      </c>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="35">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44">
+        <f>Q9-B11</f>
+        <v>29349</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="40">
+        <v>29349</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="44">
+        <f>D13-F11</f>
+        <v>12965</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="44">
+        <f>F13-H11</f>
+        <v>4773</v>
+      </c>
+      <c r="I13" s="40"/>
+      <c r="J13" s="44">
+        <f>H13-J11</f>
+        <v>677</v>
+      </c>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40">
+        <v>677</v>
+      </c>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40">
+        <v>677</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="44">
+        <f>N13-P11</f>
+        <v>165</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="40">
+        <v>165</v>
+      </c>
+      <c r="S13" s="40"/>
+      <c r="T13" s="44">
+        <f>R13-T11</f>
+        <v>37</v>
+      </c>
+      <c r="U13" s="40"/>
+      <c r="V13" s="44">
+        <v>37</v>
+      </c>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44">
+        <f>T13-X11</f>
+        <v>5</v>
+      </c>
+      <c r="Y13" s="40"/>
+      <c r="Z13" s="40">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="40"/>
+      <c r="AB13" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="24">
+        <f>AB13-AC11</f>
+        <v>1</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="18.350000000000001" x14ac:dyDescent="0.35">
+      <c r="A15" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:31" ht="18.350000000000001" x14ac:dyDescent="0.35">
+      <c r="A16" s="48">
+        <f>Q9</f>
+        <v>94885</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.350000000000001" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="68">
     <mergeCell ref="A3:M3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="T9:Y9"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="R13:S13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
